--- a/IMKL2.x/4-waardelijsten/IMKL-Waardelijsten-2.0-uitgebreid.xlsx
+++ b/IMKL2.x/4-waardelijsten/IMKL-Waardelijsten-2.0-uitgebreid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/Documents/Geonovum/Nieuwste/Waardelijsten/Laatste-van-Paul/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\4-waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6BD869-0434-6942-963E-78F37E598059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEC5BB1-9D74-4C4F-986C-F11E27AD2A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-7830" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -3049,9 +3049,6 @@
     <t>De URI van de bron voor deze waardelijst</t>
   </si>
   <si>
-    <t>Waardelijsten toegevoegd</t>
-  </si>
-  <si>
     <t>Met oranje highlight, plus het volledige tabblad "Waardelijsten"</t>
   </si>
   <si>
@@ -3119,6 +3116,9 @@
   </si>
   <si>
     <t>{extensie-op-bron}</t>
+  </si>
+  <si>
+    <t>Bron van waardelijsten toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -3767,18 +3767,18 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>25</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>25</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>982</v>
       </c>
@@ -3946,22 +3946,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>982</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4028,10 +4028,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
     </row>
   </sheetData>
@@ -4056,20 +4056,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>982</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>982</v>
       </c>
@@ -4315,12 +4315,12 @@
         <v>985</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>982</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>72</v>
@@ -4353,18 +4353,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E6BF3-2E3C-4A42-96BA-2109A771B036}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="85.5" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -4372,10 +4372,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>660</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>622</v>
       </c>
@@ -4423,18 +4423,18 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>508</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>558</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -4466,10 +4466,10 @@
         <v>90</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>519</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>961</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>509</v>
       </c>
@@ -4525,10 +4525,10 @@
         <v>509</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>510</v>
       </c>
@@ -4536,10 +4536,10 @@
         <v>510</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>850</v>
       </c>
@@ -4547,10 +4547,10 @@
         <v>850</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>866</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>524</v>
       </c>
@@ -4566,13 +4566,13 @@
         <v>524</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D23">
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -4580,10 +4580,10 @@
         <v>83</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -4599,10 +4599,10 @@
         <v>98</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -4610,10 +4610,10 @@
         <v>99</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>678</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>851</v>
       </c>
@@ -4629,10 +4629,10 @@
         <v>851</v>
       </c>
       <c r="D29" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>538</v>
       </c>
@@ -4640,13 +4640,13 @@
         <v>538</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D30">
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>525</v>
       </c>
@@ -4654,13 +4654,13 @@
         <v>525</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D31">
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -4676,10 +4676,10 @@
         <v>100</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>621</v>
       </c>
@@ -4687,10 +4687,10 @@
         <v>621</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>852</v>
       </c>
@@ -4706,10 +4706,10 @@
         <v>852</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -4717,10 +4717,10 @@
         <v>87</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>526</v>
       </c>
@@ -4728,10 +4728,10 @@
         <v>526</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>786</v>
       </c>
@@ -4739,10 +4739,10 @@
         <v>786</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -4750,10 +4750,10 @@
         <v>89</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -4761,10 +4761,10 @@
         <v>94</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>511</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>511</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -4805,27 +4805,27 @@
   <dimension ref="A1:J493"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="72.33203125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="72.28515625" style="17" customWidth="1"/>
     <col min="9" max="9" width="22" style="17" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="17"/>
+    <col min="10" max="10" width="18.7109375" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>660</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>660</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>660</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>664</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>664</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>22</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>77</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>77</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>77</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>77</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>77</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>78</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>622</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>622</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>622</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>622</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>622</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>622</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>622</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>622</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>508</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>508</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>508</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>80</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>80</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>558</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>558</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>558</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>558</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>82</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>82</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>90</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>90</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>90</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>90</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>90</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>90</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>90</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>90</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>90</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>90</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>90</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>90</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>90</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>90</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>90</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>90</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>90</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>90</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>90</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>90</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>81</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>81</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>81</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>81</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>519</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>519</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>519</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>85</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>85</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>85</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>85</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>85</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>79</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>79</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>79</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>79</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>84</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>84</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>84</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>84</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>509</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>509</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>509</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>509</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>509</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>509</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>509</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>509</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>509</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>509</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>509</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>509</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>509</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>509</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>509</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>509</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>509</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>509</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>509</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>509</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>509</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>509</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>509</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>509</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>509</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>509</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>509</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>509</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>509</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>509</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>509</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>509</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>509</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>509</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>509</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>509</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>509</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>510</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>510</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>510</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>510</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>510</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>510</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>510</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>510</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>510</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>510</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>510</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>510</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>510</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>510</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>510</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>510</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>510</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>510</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>510</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>510</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>510</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>510</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>510</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>510</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>510</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>510</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>510</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>510</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>510</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>510</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>510</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>510</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>510</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>510</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>510</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>510</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>510</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>510</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>510</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>510</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>510</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>510</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>510</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
         <v>866</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>866</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>524</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>524</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>524</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>524</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>524</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>524</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>524</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>524</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>524</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>524</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>524</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>524</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>524</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>524</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>524</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
         <v>524</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
         <v>524</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>524</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>524</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>524</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>524</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>524</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>524</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>524</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>524</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>524</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="27" t="s">
         <v>524</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>524</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>524</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>524</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>524</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>524</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>524</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>524</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>524</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
         <v>524</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
         <v>524</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
         <v>524</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
         <v>524</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
         <v>524</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
         <v>524</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
         <v>524</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
         <v>524</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
         <v>524</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="17" t="s">
         <v>524</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="s">
         <v>524</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
         <v>524</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>524</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="17" t="s">
         <v>524</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>524</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>524</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>524</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>524</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
         <v>524</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
         <v>524</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
         <v>524</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
         <v>524</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>524</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>524</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
         <v>524</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="17" t="s">
         <v>524</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="s">
         <v>524</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="17" t="s">
         <v>524</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="s">
         <v>83</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
         <v>83</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
         <v>83</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="17" t="s">
         <v>97</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="17" t="s">
         <v>97</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="17" t="s">
         <v>97</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="17" t="s">
         <v>97</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="17" t="s">
         <v>97</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="s">
         <v>97</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="s">
         <v>97</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="s">
         <v>97</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="17" t="s">
         <v>97</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="s">
         <v>97</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="17" t="s">
         <v>97</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="s">
         <v>97</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="17" t="s">
         <v>98</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="s">
         <v>98</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="17" t="s">
         <v>98</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="s">
         <v>98</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="18" t="s">
         <v>98</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="s">
         <v>98</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="17" t="s">
         <v>98</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="s">
         <v>98</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="17" t="s">
         <v>98</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="17" t="s">
         <v>98</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="17" t="s">
         <v>98</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="s">
         <v>98</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="17" t="s">
         <v>98</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="s">
         <v>98</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="17" t="s">
         <v>98</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="s">
         <v>98</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="17" t="s">
         <v>98</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="s">
         <v>98</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="17" t="s">
         <v>98</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="17" t="s">
         <v>98</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="s">
         <v>98</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="s">
         <v>99</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="s">
         <v>99</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="s">
         <v>99</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
         <v>99</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="265" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="17" t="s">
         <v>678</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="266" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="17" t="s">
         <v>678</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="267" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="s">
         <v>678</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="268" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="17" t="s">
         <v>678</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="s">
         <v>678</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="270" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="17" t="s">
         <v>678</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="271" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="s">
         <v>678</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="272" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="17" t="s">
         <v>678</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="17" t="s">
         <v>678</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
         <v>678</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
         <v>678</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="276" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="s">
         <v>678</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="s">
         <v>678</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="278" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="17" t="s">
         <v>678</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="s">
         <v>678</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="17" t="s">
         <v>678</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="281" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
         <v>678</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="282" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="17" t="s">
         <v>678</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="283" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="17" t="s">
         <v>678</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="284" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="17" t="s">
         <v>678</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="285" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
         <v>678</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="286" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="17" t="s">
         <v>678</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="287" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
         <v>678</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="s">
         <v>678</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="289" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
         <v>678</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="290" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="s">
         <v>678</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="17" t="s">
         <v>678</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="292" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="s">
         <v>678</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="293" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
         <v>678</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="294" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
         <v>678</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="295" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="s">
         <v>678</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="s">
         <v>678</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="297" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="s">
         <v>678</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="298" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
         <v>678</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="299" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="s">
         <v>678</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="300" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="17" t="s">
         <v>678</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="301" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="s">
         <v>678</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="17" t="s">
         <v>678</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="303" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="s">
         <v>678</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="304" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="17" t="s">
         <v>678</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="305" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="s">
         <v>678</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="306" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
         <v>678</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="307" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="17" t="s">
         <v>678</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="308" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="s">
         <v>678</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="309" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="17" t="s">
         <v>678</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="310" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="17" t="s">
         <v>678</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="311" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="s">
         <v>678</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="312" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="17" t="s">
         <v>678</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="313" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="s">
         <v>678</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="314" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="17" t="s">
         <v>678</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="315" spans="1:10" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="s">
         <v>678</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="17" t="s">
         <v>538</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="s">
         <v>538</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="17" t="s">
         <v>538</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="17" t="s">
         <v>538</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="s">
         <v>538</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="s">
         <v>538</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="17" t="s">
         <v>538</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="17" t="s">
         <v>538</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="s">
         <v>538</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="s">
         <v>538</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="17" t="s">
         <v>538</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
         <v>538</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="17" t="s">
         <v>538</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="s">
         <v>525</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="17" t="s">
         <v>525</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="17" t="s">
         <v>525</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="17" t="s">
         <v>525</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="17" t="s">
         <v>525</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A334" s="17" t="s">
         <v>86</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="17" t="s">
         <v>86</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A336" s="17" t="s">
         <v>86</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A337" s="17" t="s">
         <v>86</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="17" t="s">
         <v>86</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="s">
         <v>86</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" s="17" t="s">
         <v>86</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A341" s="17" t="s">
         <v>86</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A342" s="17" t="s">
         <v>86</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="17" t="s">
         <v>86</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="17" t="s">
         <v>86</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" ht="390" x14ac:dyDescent="0.25">
       <c r="A345" s="17" t="s">
         <v>86</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="17" t="s">
         <v>86</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A347" s="17" t="s">
         <v>86</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="17" t="s">
         <v>86</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="17" t="s">
         <v>100</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="17" t="s">
         <v>100</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="17" t="s">
         <v>100</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="17" t="s">
         <v>100</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="17" t="s">
         <v>100</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="17" t="s">
         <v>100</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="17" t="s">
         <v>100</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="17" t="s">
         <v>100</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="17" t="s">
         <v>100</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="17" t="s">
         <v>100</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="17" t="s">
         <v>100</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="17" t="s">
         <v>100</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="17" t="s">
         <v>100</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="17" t="s">
         <v>100</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="17" t="s">
         <v>100</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="17" t="s">
         <v>100</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="17" t="s">
         <v>100</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="17" t="s">
         <v>100</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="17" t="s">
         <v>100</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="17" t="s">
         <v>100</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="17" t="s">
         <v>621</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="17" t="s">
         <v>621</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="17" t="s">
         <v>621</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="17" t="s">
         <v>47</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="17" t="s">
         <v>47</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="17" t="s">
         <v>47</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="17" t="s">
         <v>47</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="17" t="s">
         <v>47</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="17" t="s">
         <v>47</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="17" t="s">
         <v>47</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="17" t="s">
         <v>47</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="17" t="s">
         <v>47</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="17" t="s">
         <v>47</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="17" t="s">
         <v>47</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="17" t="s">
         <v>47</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="17" t="s">
         <v>47</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="17" t="s">
         <v>47</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="17" t="s">
         <v>47</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="s">
         <v>47</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="17" t="s">
         <v>47</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="s">
         <v>47</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="17" t="s">
         <v>47</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="17" t="s">
         <v>47</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="17" t="s">
         <v>47</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="s">
         <v>47</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="17" t="s">
         <v>47</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="s">
         <v>47</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="17" t="s">
         <v>47</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="17" t="s">
         <v>47</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="17" t="s">
         <v>47</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="17" t="s">
         <v>47</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="17" t="s">
         <v>47</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="17" t="s">
         <v>47</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="17" t="s">
         <v>47</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="17" t="s">
         <v>47</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="17" t="s">
         <v>87</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A405" s="17" t="s">
         <v>87</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A406" s="17" t="s">
         <v>87</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="17" t="s">
         <v>87</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="17" t="s">
         <v>526</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="17" t="s">
         <v>526</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="17" t="s">
         <v>526</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="17" t="s">
         <v>526</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="17" t="s">
         <v>526</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="17" t="s">
         <v>526</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="17" t="s">
         <v>526</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="17" t="s">
         <v>786</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="17" t="s">
         <v>786</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="17" t="s">
         <v>786</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="17" t="s">
         <v>89</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="17" t="s">
         <v>89</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="17" t="s">
         <v>89</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="17" t="s">
         <v>94</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="17" t="s">
         <v>94</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="s">
         <v>94</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="17" t="s">
         <v>94</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="17" t="s">
         <v>94</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="17" t="s">
         <v>94</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="17" t="s">
         <v>94</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="17" t="s">
         <v>94</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="17" t="s">
         <v>94</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="17" t="s">
         <v>94</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="17" t="s">
         <v>94</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="17" t="s">
         <v>94</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="17" t="s">
         <v>94</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="17" t="s">
         <v>94</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="17" t="s">
         <v>94</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="17" t="s">
         <v>94</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="17" t="s">
         <v>94</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="17" t="s">
         <v>94</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="17" t="s">
         <v>94</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="17" t="s">
         <v>94</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="17" t="s">
         <v>94</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="17" t="s">
         <v>94</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
         <v>94</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="17" t="s">
         <v>94</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="s">
         <v>94</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="17" t="s">
         <v>94</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="s">
         <v>94</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="17" t="s">
         <v>511</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="s">
         <v>511</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="17" t="s">
         <v>511</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="17" t="s">
         <v>511</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="17" t="s">
         <v>511</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
         <v>511</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
         <v>511</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
         <v>511</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>850</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>851</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>852</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="18" t="s">
         <v>961</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="18" t="s">
         <v>961</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="18" t="s">
         <v>961</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="18" t="s">
         <v>961</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="18" t="s">
         <v>961</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="18" t="s">
         <v>961</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="18" t="s">
         <v>961</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="18" t="s">
         <v>961</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="18" t="s">
         <v>961</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="18" t="s">
         <v>961</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="18" t="s">
         <v>961</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="18" t="s">
         <v>961</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="18" t="s">
         <v>961</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="18" t="s">
         <v>961</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="18" t="s">
         <v>961</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="18" t="s">
         <v>961</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="18" t="s">
         <v>961</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="18" t="s">
         <v>961</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="18" t="s">
         <v>961</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="18" t="s">
         <v>961</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="18" t="s">
         <v>961</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="18" t="s">
         <v>961</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="18" t="s">
         <v>961</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="18" t="s">
         <v>961</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="18" t="s">
         <v>961</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="18" t="s">
         <v>961</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="18" t="s">
         <v>961</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="18" t="s">
         <v>961</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="18" t="s">
         <v>961</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="18" t="s">
         <v>961</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="18" t="s">
         <v>961</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="18" t="s">
         <v>961</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="18" t="s">
         <v>961</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="18" t="s">
         <v>961</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="18" t="s">
         <v>961</v>
       </c>
@@ -13428,21 +13428,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="58.1640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="38.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>660</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>523</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>508</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>558</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>519</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>84</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>509</v>
       </c>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>510</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>524</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>97</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>98</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>99</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>538</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>525</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>621</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>526</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>511</v>
       </c>
@@ -13847,21 +13847,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="59" style="13" customWidth="1"/>
-    <col min="5" max="5" width="55.5" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="12"/>
+    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>650</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>20160702</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="12">
         <v>2</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>20170215</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="12">
         <v>4</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12">
         <v>5</v>
       </c>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="12">
         <v>6</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12">
         <v>7</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="12">
         <v>8</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="12">
         <v>9</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="12">
         <v>10</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>764</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>773</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="12">
         <v>12</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12">
         <v>13</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12">
         <v>14</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12">
         <v>15</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>20180305</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="12">
         <v>17</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="12">
         <v>18</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="12">
         <v>19</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="12">
         <v>20</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20200312</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>20200423</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="13" t="s">
         <v>665</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="13" t="s">
         <v>866</v>
       </c>
@@ -14172,12 +14172,12 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D27" s="13" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="13" t="s">
         <v>873</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="13" t="s">
         <v>879</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>20200508</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>20200610</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>20200916</v>
       </c>
@@ -14226,22 +14226,22 @@
         <v>886</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="13" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="13" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="13" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="13" t="s">
         <v>893</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>20200923</v>
       </c>
@@ -14257,12 +14257,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>20211203</v>
+      </c>
       <c r="D38" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>989</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -14279,15 +14282,15 @@
       <selection activeCell="F3" sqref="E1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -14304,7 +14307,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>509</v>
       </c>
@@ -14321,7 +14324,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>98</v>
       </c>
@@ -14338,7 +14341,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -14349,7 +14352,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>94</v>
       </c>
@@ -14360,7 +14363,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>94</v>
       </c>
@@ -14371,7 +14374,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>94</v>
       </c>
